--- a/ope.ed.gov/2012/arrests-public-property-virginia-colleges-and-universities-crime-2012.xlsx
+++ b/ope.ed.gov/2012/arrests-public-property-virginia-colleges-and-universities-crime-2012.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Arrests - Public Property</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>Advanced Technology Institute</t>
@@ -1777,34 +1774,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2012.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>787.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1815,13 +1836,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
         <v>787.0</v>
@@ -1844,13 +1865,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
         <v>787.0</v>
@@ -1870,19 +1891,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
-        <v>787.0</v>
+        <v>2130.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1902,13 +1923,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
         <v>2130.0</v>
@@ -1931,13 +1952,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
         <v>2130.0</v>
@@ -1960,13 +1981,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
         <v>2130.0</v>
@@ -1989,13 +2010,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
         <v>2130.0</v>
@@ -2018,13 +2039,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
         <v>2130.0</v>
@@ -2047,13 +2068,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
         <v>2130.0</v>
@@ -2076,13 +2097,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
         <v>2130.0</v>
@@ -2105,13 +2126,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
         <v>2130.0</v>
@@ -2134,13 +2155,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
         <v>2130.0</v>
@@ -2160,19 +2181,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232797.0</v>
+        <v>449922.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
-        <v>2130.0</v>
+        <v>223.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -2189,19 +2210,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B16">
-        <v>449922.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
-        <v>223.0</v>
+        <v>263.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -2218,19 +2239,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B17">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
-        <v>263.0</v>
+        <v>1018.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -2239,7 +2260,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I17">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -2247,19 +2268,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B18">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
-        <v>1018.0</v>
+        <v>914.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -2268,7 +2289,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I18">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -2276,19 +2297,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B19">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
-        <v>914.0</v>
+        <v>1403.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -2308,13 +2329,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
         <v>1403.0</v>
@@ -2337,13 +2358,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
         <v>1403.0</v>
@@ -2366,13 +2387,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
         <v>1403.0</v>
@@ -2392,19 +2413,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B23">
-        <v>449931.0</v>
+        <v>448257.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
-        <v>1403.0</v>
+        <v>36.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -2421,28 +2442,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B24">
-        <v>448257.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
-        <v>36.0</v>
+        <v>326.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
       </c>
       <c s="1" r="H24">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="I24">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -2450,28 +2471,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B25">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
-        <v>326.0</v>
+        <v>207.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
       </c>
       <c s="1" r="H25">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I25">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -2479,19 +2500,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B26">
-        <v>445762.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
-        <v>207.0</v>
+        <v>98.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -2508,19 +2529,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B27">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
-        <v>98.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -2537,19 +2558,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B28">
-        <v>231280.0</v>
+        <v>458113.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
-        <v>84.0</v>
+        <v>49.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2566,28 +2587,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B29">
-        <v>458113.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F29">
-        <v>49.0</v>
+        <v>4694.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
       </c>
       <c s="1" r="H29">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I29">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -2595,28 +2616,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B30">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
-        <v>4694.0</v>
+        <v>831.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
       </c>
       <c s="1" r="H30">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I30">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -2624,19 +2645,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
-        <v>831.0</v>
+        <v>290.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -2653,19 +2674,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B32">
-        <v>233356.0</v>
+        <v>233480.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
-        <v>290.0</v>
+        <v>35.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -2682,19 +2703,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233480.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
-        <v>35.0</v>
+        <v>1759.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -2711,19 +2732,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B34">
-        <v>231581.0</v>
+        <v>459107.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
-        <v>1759.0</v>
+        <v>567.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -2740,19 +2761,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B35">
-        <v>459107.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
-        <v>567.0</v>
+        <v>942.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2769,19 +2790,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B36">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
-        <v>942.0</v>
+        <v>755.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2798,19 +2819,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B37">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
-        <v>755.0</v>
+        <v>175.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2827,28 +2848,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B38">
-        <v>441858.0</v>
+        <v>430306.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
-        <v>175.0</v>
+        <v>50.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
       </c>
       <c s="1" r="H38">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I38">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="39">
@@ -2856,28 +2877,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B39">
-        <v>430306.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
       </c>
       <c s="1" r="H39">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I39">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -2885,19 +2906,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B40">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
-        <v>48.0</v>
+        <v>4906.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -2917,13 +2938,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
         <v>4906.0</v>
@@ -2946,13 +2967,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
         <v>4906.0</v>
@@ -2975,13 +2996,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
         <v>4906.0</v>
@@ -3004,13 +3025,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
         <v>4906.0</v>
@@ -3030,25 +3051,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B45">
-        <v>231697.0</v>
+        <v>451592.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
-        <v>4906.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
       </c>
       <c s="1" r="H45">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I45">
         <v>0.0</v>
@@ -3059,25 +3080,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B46">
-        <v>451592.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
-        <v>10.0</v>
+        <v>289.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
       </c>
       <c s="1" r="H46">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I46">
         <v>0.0</v>
@@ -3088,19 +3109,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B47">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
-        <v>289.0</v>
+        <v>344.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -3117,19 +3138,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B48">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
-        <v>344.0</v>
+        <v>411.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -3146,19 +3167,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B49">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F49">
-        <v>411.0</v>
+        <v>300.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -3175,19 +3196,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B50">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
-        <v>300.0</v>
+        <v>156.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -3204,28 +3225,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B51">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
-        <v>156.0</v>
+        <v>1484.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
       </c>
       <c s="1" r="H51">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I51">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
@@ -3233,28 +3254,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
-        <v>1484.0</v>
+        <v>176.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
       </c>
       <c s="1" r="H52">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I52">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
@@ -3262,19 +3283,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B53">
-        <v>427894.0</v>
+        <v>460871.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
-        <v>176.0</v>
+        <v>348.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -3283,7 +3304,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I53">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
@@ -3291,28 +3312,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B54">
-        <v>460871.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
-        <v>348.0</v>
+        <v>5186.0</v>
       </c>
       <c s="1" r="G54">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H54">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c s="1" r="I54">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="55">
@@ -3320,28 +3341,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B55">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
-        <v>5186.0</v>
+        <v>8258.0</v>
       </c>
       <c s="1" r="G55">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H55">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I55">
-        <v>19.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="56">
@@ -3352,13 +3373,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D56">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F56">
         <v>8258.0</v>
@@ -3367,10 +3388,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H56">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I56">
-        <v>61.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -3381,13 +3402,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D57">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F57">
         <v>8258.0</v>
@@ -3396,7 +3417,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H57">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I57">
         <v>0.0</v>
@@ -3410,13 +3431,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D58">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F58">
         <v>8258.0</v>
@@ -3425,7 +3446,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H58">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I58">
         <v>0.0</v>
@@ -3436,19 +3457,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B59">
-        <v>231624.0</v>
+        <v>455983.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D59">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F59">
-        <v>8258.0</v>
+        <v>299.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -3468,13 +3489,13 @@
         <v>455983.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D60">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F60">
         <v>299.0</v>
@@ -3494,19 +3515,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B61">
-        <v>455983.0</v>
+        <v>461449.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D61">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F61">
-        <v>299.0</v>
+        <v>101.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -3523,19 +3544,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B62">
-        <v>461449.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F62">
-        <v>101.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
@@ -3552,19 +3573,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B63">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F63">
-        <v>14.0</v>
+        <v>1463.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -3581,19 +3602,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B64">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F64">
-        <v>1463.0</v>
+        <v>4420.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -3610,19 +3631,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B65">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F65">
-        <v>4420.0</v>
+        <v>54.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -3639,19 +3660,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B66">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D66">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F66">
-        <v>54.0</v>
+        <v>1012.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
@@ -3660,7 +3681,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I66">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -3671,13 +3692,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D67">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F67">
         <v>1012.0</v>
@@ -3689,7 +3710,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I67">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
@@ -3700,13 +3721,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D68">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F68">
         <v>1012.0</v>
@@ -3726,19 +3747,16 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B69">
-        <v>440536.0</v>
+        <v>482653.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D69">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>143</v>
-      </c>
-      <c s="1" r="F69">
-        <v>1012.0</v>
+        <v>144</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -3747,7 +3765,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I69">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -3758,13 +3776,13 @@
         <v>482653.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D70">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -3773,7 +3791,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I70">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
@@ -3784,13 +3802,13 @@
         <v>482653.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D71">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -3807,16 +3825,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B72">
-        <v>482653.0</v>
+        <v>451617.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D72">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c s="1" r="F72">
+        <v>37.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -3833,19 +3854,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B73">
-        <v>451617.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F73">
-        <v>37.0</v>
+        <v>1519.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -3862,19 +3883,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B74">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D74">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F74">
-        <v>1519.0</v>
+        <v>990.0</v>
       </c>
       <c s="1" r="G74">
         <v>0.0</v>
@@ -3891,19 +3912,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B75">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D75">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F75">
-        <v>990.0</v>
+        <v>993.0</v>
       </c>
       <c s="1" r="G75">
         <v>0.0</v>
@@ -3920,19 +3941,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B76">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D76">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F76">
-        <v>993.0</v>
+        <v>9840.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -3952,13 +3973,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D77">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F77">
         <v>9840.0</v>
@@ -3981,13 +4002,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D78">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F78">
         <v>9840.0</v>
@@ -4010,13 +4031,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D79">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F79">
         <v>9840.0</v>
@@ -4039,13 +4060,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D80">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F80">
         <v>9840.0</v>
@@ -4068,13 +4089,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D81">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F81">
         <v>9840.0</v>
@@ -4097,13 +4118,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D82">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F82">
         <v>9840.0</v>
@@ -4126,13 +4147,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D83">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F83">
         <v>9840.0</v>
@@ -4155,13 +4176,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D84">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F84">
         <v>9840.0</v>
@@ -4184,13 +4205,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D85">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F85">
         <v>9840.0</v>
@@ -4213,13 +4234,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D86">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F86">
         <v>9840.0</v>
@@ -4242,13 +4263,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D87">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F87">
         <v>9840.0</v>
@@ -4271,13 +4292,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D88">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F88">
         <v>9840.0</v>
@@ -4300,13 +4321,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D89">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F89">
         <v>9840.0</v>
@@ -4326,19 +4347,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B90">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D90">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F90">
-        <v>9840.0</v>
+        <v>1144.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -4358,13 +4379,13 @@
         <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D91">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F91">
         <v>1144.0</v>
@@ -4384,19 +4405,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B92">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D92">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F92">
-        <v>1144.0</v>
+        <v>945.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -4413,19 +4434,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B93">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F93">
-        <v>945.0</v>
+        <v>137.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
@@ -4442,19 +4463,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B94">
-        <v>444282.0</v>
+        <v>450599.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F94">
-        <v>137.0</v>
+        <v>121.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -4471,19 +4492,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B95">
-        <v>450599.0</v>
+        <v>476179.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F95">
-        <v>121.0</v>
+        <v>59.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -4500,19 +4521,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B96">
-        <v>476179.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D96">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F96">
-        <v>59.0</v>
+        <v>725.0</v>
       </c>
       <c s="1" r="G96">
         <v>0.0</v>
@@ -4529,19 +4550,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B97">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D97">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F97">
-        <v>725.0</v>
+        <v>335.0</v>
       </c>
       <c s="1" r="G97">
         <v>0.0</v>
@@ -4558,19 +4579,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B98">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D98">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F98">
-        <v>335.0</v>
+        <v>351.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
@@ -4587,19 +4608,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B99">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D99">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F99">
-        <v>351.0</v>
+        <v>1510.0</v>
       </c>
       <c s="1" r="G99">
         <v>0.0</v>
@@ -4616,19 +4637,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B100">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D100">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F100">
-        <v>1510.0</v>
+        <v>392.0</v>
       </c>
       <c s="1" r="G100">
         <v>0.0</v>
@@ -4645,19 +4666,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B101">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D101">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F101">
-        <v>392.0</v>
+        <v>534.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -4674,28 +4695,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B102">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D102">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F102">
-        <v>534.0</v>
+        <v>32961.0</v>
       </c>
       <c s="1" r="G102">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H102">
-        <v>0.0</v>
+        <v>123.0</v>
       </c>
       <c s="1" r="I102">
-        <v>0.0</v>
+        <v>133.0</v>
       </c>
     </row>
     <row r="103">
@@ -4703,28 +4724,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B103">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D103">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F103">
-        <v>32961.0</v>
+        <v>7520.0</v>
       </c>
       <c s="1" r="G103">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H103">
-        <v>123.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I103">
-        <v>133.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
@@ -4735,13 +4756,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D104">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F104">
         <v>7520.0</v>
@@ -4764,13 +4785,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D105">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F105">
         <v>7520.0</v>
@@ -4793,13 +4814,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D106">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F106">
         <v>7520.0</v>
@@ -4819,19 +4840,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B107">
-        <v>232195.0</v>
+        <v>455390.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D107">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F107">
-        <v>7520.0</v>
+        <v>265.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
@@ -4848,19 +4869,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B108">
-        <v>455390.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D108">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F108">
-        <v>265.0</v>
+        <v>195.0</v>
       </c>
       <c s="1" r="G108">
         <v>0.0</v>
@@ -4877,28 +4898,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B109">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D109">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F109">
-        <v>195.0</v>
+        <v>1080.0</v>
       </c>
       <c s="1" r="G109">
         <v>0.0</v>
       </c>
       <c s="1" r="H109">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I109">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="110">
@@ -4906,28 +4927,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B110">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D110">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F110">
-        <v>1080.0</v>
+        <v>4765.0</v>
       </c>
       <c s="1" r="G110">
         <v>0.0</v>
       </c>
       <c s="1" r="H110">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I110">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
@@ -4938,13 +4959,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D111">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F111">
         <v>4765.0</v>
@@ -4964,19 +4985,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B112">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D112">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F112">
-        <v>4765.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G112">
         <v>0.0</v>
@@ -4993,19 +5014,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B113">
-        <v>431266.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D113">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F113">
-        <v>84.0</v>
+        <v>794.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -5022,19 +5043,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B114">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D114">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F114">
-        <v>794.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G114">
         <v>0.0</v>
@@ -5051,19 +5072,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B115">
-        <v>445869.0</v>
+        <v>458122.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D115">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F115">
-        <v>84.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="G115">
         <v>0.0</v>
@@ -5080,19 +5101,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B116">
-        <v>458122.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D116">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F116">
-        <v>3.0</v>
+        <v>607.0</v>
       </c>
       <c s="1" r="G116">
         <v>0.0</v>
@@ -5109,19 +5130,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B117">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D117">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F117">
-        <v>607.0</v>
+        <v>901.0</v>
       </c>
       <c s="1" r="G117">
         <v>0.0</v>
@@ -5138,19 +5159,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B118">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D118">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F118">
-        <v>901.0</v>
+        <v>585.0</v>
       </c>
       <c s="1" r="G118">
         <v>0.0</v>
@@ -5167,19 +5188,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B119">
-        <v>437051.0</v>
+        <v>459602.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D119">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F119">
-        <v>585.0</v>
+        <v>207.0</v>
       </c>
       <c s="1" r="G119">
         <v>0.0</v>
@@ -5196,19 +5217,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B120">
-        <v>459602.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D120">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F120">
-        <v>207.0</v>
+        <v>720.0</v>
       </c>
       <c s="1" r="G120">
         <v>0.0</v>
@@ -5225,19 +5246,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B121">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D121">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F121">
-        <v>720.0</v>
+        <v>12846.0</v>
       </c>
       <c s="1" r="G121">
         <v>0.0</v>
@@ -5257,19 +5278,19 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D122">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F122">
         <v>12846.0</v>
       </c>
       <c s="1" r="G122">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H122">
         <v>0.0</v>
@@ -5286,19 +5307,19 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D123">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F123">
         <v>12846.0</v>
       </c>
       <c s="1" r="G123">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H123">
         <v>0.0</v>
@@ -5312,22 +5333,22 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B124">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D124">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F124">
-        <v>12846.0</v>
+        <v>19927.0</v>
       </c>
       <c s="1" r="G124">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H124">
         <v>0.0</v>
@@ -5344,19 +5365,19 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D125">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F125">
         <v>19927.0</v>
       </c>
       <c s="1" r="G125">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H125">
         <v>0.0</v>
@@ -5373,13 +5394,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D126">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F126">
         <v>19927.0</v>
@@ -5402,13 +5423,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D127">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F127">
         <v>19927.0</v>
@@ -5428,19 +5449,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B128">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D128">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F128">
-        <v>19927.0</v>
+        <v>1048.0</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
@@ -5457,19 +5478,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B129">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D129">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F129">
-        <v>1048.0</v>
+        <v>10145.0</v>
       </c>
       <c s="1" r="G129">
         <v>0.0</v>
@@ -5489,13 +5510,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D130">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F130">
         <v>10145.0</v>
@@ -5518,13 +5539,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D131">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F131">
         <v>10145.0</v>
@@ -5547,13 +5568,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D132">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F132">
         <v>10145.0</v>
@@ -5573,19 +5594,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B133">
-        <v>232450.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D133">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F133">
-        <v>10145.0</v>
+        <v>74372.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -5602,28 +5623,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B134">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D134">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F134">
-        <v>74372.0</v>
+        <v>4834.0</v>
       </c>
       <c s="1" r="G134">
         <v>0.0</v>
       </c>
       <c s="1" r="H134">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="I134">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="135">
@@ -5634,13 +5655,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D135">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F135">
         <v>4834.0</v>
@@ -5649,10 +5670,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H135">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I135">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
@@ -5663,13 +5684,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D136">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F136">
         <v>4834.0</v>
@@ -5689,19 +5710,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B137">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D137">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F137">
-        <v>4834.0</v>
+        <v>7288.0</v>
       </c>
       <c s="1" r="G137">
         <v>0.0</v>
@@ -5721,13 +5742,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D138">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F138">
         <v>7288.0</v>
@@ -5750,13 +5771,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D139">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F139">
         <v>7288.0</v>
@@ -5776,19 +5797,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B140">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D140">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F140">
-        <v>7288.0</v>
+        <v>2756.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -5797,7 +5818,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I140">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="141">
@@ -5805,19 +5826,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B141">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F141">
-        <v>2756.0</v>
+        <v>167.0</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
@@ -5826,7 +5847,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I141">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
@@ -5834,19 +5855,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B142">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D142">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F142">
-        <v>167.0</v>
+        <v>1791.0</v>
       </c>
       <c s="1" r="G142">
         <v>0.0</v>
@@ -5863,19 +5884,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B143">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D143">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F143">
-        <v>1791.0</v>
+        <v>3702.0</v>
       </c>
       <c s="1" r="G143">
         <v>0.0</v>
@@ -5892,19 +5913,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B144">
-        <v>232706.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D144">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F144">
-        <v>3702.0</v>
+        <v>1545.0</v>
       </c>
       <c s="1" r="G144">
         <v>0.0</v>
@@ -5924,13 +5945,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D145">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F145">
         <v>1545.0</v>
@@ -5953,13 +5974,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D146">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F146">
         <v>1545.0</v>
@@ -5979,19 +6000,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B147">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D147">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F147">
-        <v>1545.0</v>
+        <v>445.0</v>
       </c>
       <c s="1" r="G147">
         <v>0.0</v>
@@ -6008,19 +6029,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B148">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D148">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F148">
-        <v>445.0</v>
+        <v>3089.0</v>
       </c>
       <c s="1" r="G148">
         <v>0.0</v>
@@ -6037,28 +6058,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B149">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D149">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F149">
-        <v>3089.0</v>
+        <v>5083.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
       </c>
       <c s="1" r="H149">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I149">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="150">
@@ -6066,28 +6087,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B150">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D150">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F150">
-        <v>5083.0</v>
+        <v>7100.0</v>
       </c>
       <c s="1" r="G150">
         <v>0.0</v>
       </c>
       <c s="1" r="H150">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I150">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="151">
@@ -6095,19 +6116,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B151">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D151">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F151">
-        <v>7100.0</v>
+        <v>51864.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -6127,13 +6148,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D152">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F152">
         <v>51864.0</v>
@@ -6142,10 +6163,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H152">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I152">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="153">
@@ -6156,25 +6177,25 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D153">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F153">
         <v>51864.0</v>
       </c>
       <c s="1" r="G153">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H153">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I153">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="154">
@@ -6185,25 +6206,25 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D154">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F154">
         <v>51864.0</v>
       </c>
       <c s="1" r="G154">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H154">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I154">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="155">
@@ -6214,13 +6235,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D155">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F155">
         <v>51864.0</v>
@@ -6232,7 +6253,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I155">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="156">
@@ -6243,13 +6264,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D156">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F156">
         <v>51864.0</v>
@@ -6272,13 +6293,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D157">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F157">
         <v>51864.0</v>
@@ -6301,13 +6322,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D158">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F158">
         <v>51864.0</v>
@@ -6330,13 +6351,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D159">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F159">
         <v>51864.0</v>
@@ -6359,13 +6380,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D160">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F160">
         <v>51864.0</v>
@@ -6388,13 +6409,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D161">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F161">
         <v>51864.0</v>
@@ -6417,13 +6438,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D162">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F162">
         <v>51864.0</v>
@@ -6446,13 +6467,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D163">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F163">
         <v>51864.0</v>
@@ -6475,13 +6496,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D164">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F164">
         <v>51864.0</v>
@@ -6501,19 +6522,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B165">
-        <v>232946.0</v>
+        <v>461412.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D165">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F165">
-        <v>51864.0</v>
+        <v>78.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -6530,28 +6551,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B166">
-        <v>461412.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F166">
-        <v>78.0</v>
+        <v>24670.0</v>
       </c>
       <c s="1" r="G166">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H166">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I166">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="167">
@@ -6559,28 +6580,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B167">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F167">
-        <v>24670.0</v>
+        <v>3079.0</v>
       </c>
       <c s="1" r="G167">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H167">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I167">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
@@ -6588,19 +6609,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B168">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F168">
-        <v>3079.0</v>
+        <v>1493.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -6620,13 +6641,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D169">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F169">
         <v>1493.0</v>
@@ -6646,19 +6667,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B170">
-        <v>233037.0</v>
+        <v>449995.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D170">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F170">
-        <v>1493.0</v>
+        <v>214.0</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -6675,19 +6696,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B171">
-        <v>449995.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F171">
-        <v>214.0</v>
+        <v>5693.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
@@ -6704,28 +6725,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B172">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F172">
-        <v>5693.0</v>
+        <v>9573.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
       </c>
       <c s="1" r="H172">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="I172">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="173">
@@ -6733,28 +6754,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B173">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F173">
-        <v>9573.0</v>
+        <v>645.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
       </c>
       <c s="1" r="H173">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I173">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="174">
@@ -6762,28 +6783,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B174">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F174">
-        <v>645.0</v>
+        <v>1312.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
       </c>
       <c s="1" r="H174">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I174">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="175">
@@ -6791,28 +6812,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B175">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F175">
-        <v>1312.0</v>
+        <v>3711.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
       </c>
       <c s="1" r="H175">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I175">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="176">
@@ -6823,13 +6844,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D176">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F176">
         <v>3711.0</v>
@@ -6852,13 +6873,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D177">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F177">
         <v>3711.0</v>
@@ -6878,19 +6899,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B178">
-        <v>233310.0</v>
+        <v>467605.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D178">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F178">
-        <v>3711.0</v>
+        <v>91.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -6907,19 +6928,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B179">
-        <v>467605.0</v>
+        <v>476133.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D179">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F179">
-        <v>91.0</v>
+        <v>118.0</v>
       </c>
       <c s="1" r="G179">
         <v>0.0</v>
@@ -6936,19 +6957,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B180">
-        <v>476133.0</v>
+        <v>467650.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D180">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F180">
-        <v>118.0</v>
+        <v>81.0</v>
       </c>
       <c s="1" r="G180">
         <v>0.0</v>
@@ -6965,19 +6986,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B181">
-        <v>467650.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D181">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F181">
-        <v>81.0</v>
+        <v>5635.0</v>
       </c>
       <c s="1" r="G181">
         <v>0.0</v>
@@ -6994,19 +7015,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B182">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D182">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F182">
-        <v>5635.0</v>
+        <v>1532.0</v>
       </c>
       <c s="1" r="G182">
         <v>0.0</v>
@@ -7023,19 +7044,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B183">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D183">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F183">
-        <v>1532.0</v>
+        <v>196.0</v>
       </c>
       <c s="1" r="G183">
         <v>0.0</v>
@@ -7052,19 +7073,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B184">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D184">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F184">
-        <v>196.0</v>
+        <v>326.0</v>
       </c>
       <c s="1" r="G184">
         <v>0.0</v>
@@ -7081,28 +7102,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B185">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D185">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F185">
-        <v>326.0</v>
+        <v>2060.0</v>
       </c>
       <c s="1" r="G185">
         <v>0.0</v>
       </c>
       <c s="1" r="H185">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I185">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="186">
@@ -7110,28 +7131,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B186">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D186">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F186">
-        <v>2060.0</v>
+        <v>272.0</v>
       </c>
       <c s="1" r="G186">
         <v>0.0</v>
       </c>
       <c s="1" r="H186">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="I186">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="187">
@@ -7139,25 +7160,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B187">
-        <v>441876.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D187">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F187">
-        <v>272.0</v>
+        <v>733.0</v>
       </c>
       <c s="1" r="G187">
         <v>0.0</v>
       </c>
       <c s="1" r="H187">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I187">
         <v>0.0</v>
@@ -7168,28 +7189,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B188">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D188">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F188">
-        <v>733.0</v>
+        <v>365.0</v>
       </c>
       <c s="1" r="G188">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H188">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I188">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="189">
@@ -7197,25 +7218,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B189">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D189">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F189">
-        <v>365.0</v>
+        <v>4176.0</v>
       </c>
       <c s="1" r="G189">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H189">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I189">
         <v>1.0</v>
@@ -7226,28 +7247,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B190">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D190">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F190">
-        <v>4176.0</v>
+        <v>214.0</v>
       </c>
       <c s="1" r="G190">
         <v>0.0</v>
       </c>
       <c s="1" r="H190">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I190">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="191">
@@ -7255,19 +7276,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B191">
-        <v>261931.0</v>
+        <v>459259.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D191">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F191">
-        <v>214.0</v>
+        <v>633.0</v>
       </c>
       <c s="1" r="G191">
         <v>0.0</v>
@@ -7276,7 +7297,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I191">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="192">
@@ -7284,19 +7305,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B192">
-        <v>459259.0</v>
+        <v>459268.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D192">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F192">
-        <v>633.0</v>
+        <v>635.0</v>
       </c>
       <c s="1" r="G192">
         <v>0.0</v>
@@ -7305,7 +7326,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I192">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
@@ -7313,19 +7334,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B193">
-        <v>459268.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D193">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F193">
-        <v>635.0</v>
+        <v>730.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
@@ -7342,19 +7363,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B194">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D194">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F194">
-        <v>730.0</v>
+        <v>127.0</v>
       </c>
       <c s="1" r="G194">
         <v>0.0</v>
@@ -7371,19 +7392,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B195">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D195">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F195">
-        <v>127.0</v>
+        <v>6042.0</v>
       </c>
       <c s="1" r="G195">
         <v>0.0</v>
@@ -7400,19 +7421,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B196">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D196">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F196">
-        <v>6042.0</v>
+        <v>2766.0</v>
       </c>
       <c s="1" r="G196">
         <v>0.0</v>
@@ -7429,19 +7450,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B197">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D197">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F197">
-        <v>2766.0</v>
+        <v>69.0</v>
       </c>
       <c s="1" r="G197">
         <v>0.0</v>
@@ -7458,19 +7479,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B198">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D198">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F198">
-        <v>69.0</v>
+        <v>35.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
@@ -7487,19 +7508,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B199">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D199">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F199">
-        <v>35.0</v>
+        <v>2733.0</v>
       </c>
       <c s="1" r="G199">
         <v>0.0</v>
@@ -7516,19 +7537,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B200">
-        <v>438498.0</v>
+        <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D200">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F200">
-        <v>2733.0</v>
+        <v>8991.0</v>
       </c>
       <c s="1" r="G200">
         <v>0.0</v>
@@ -7548,13 +7569,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D201">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F201">
         <v>8991.0</v>
@@ -7577,13 +7598,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D202">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F202">
         <v>8991.0</v>
@@ -7606,13 +7627,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D203">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F203">
         <v>8991.0</v>
@@ -7635,13 +7656,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D204">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F204">
         <v>8991.0</v>
@@ -7653,7 +7674,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I204">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="205">
@@ -7664,13 +7685,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D205">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F205">
         <v>8991.0</v>
@@ -7682,7 +7703,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I205">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
@@ -7693,13 +7714,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D206">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F206">
         <v>8991.0</v>
@@ -7722,13 +7743,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D207">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F207">
         <v>8991.0</v>
@@ -7751,25 +7772,25 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D208">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F208">
         <v>8991.0</v>
       </c>
       <c s="1" r="G208">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H208">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I208">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="209">
@@ -7780,13 +7801,13 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D209">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F209">
         <v>8991.0</v>
@@ -7798,7 +7819,7 @@
         <v>1.0</v>
       </c>
       <c s="1" r="I209">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="210">
@@ -7809,22 +7830,22 @@
         <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D210">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F210">
         <v>8991.0</v>
       </c>
       <c s="1" r="G210">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H210">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I210">
         <v>0.0</v>
@@ -7835,19 +7856,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B211">
-        <v>233684.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D211">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F211">
-        <v>8991.0</v>
+        <v>43.0</v>
       </c>
       <c s="1" r="G211">
         <v>0.0</v>
@@ -7864,19 +7885,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B212">
-        <v>231721.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D212">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F212">
-        <v>43.0</v>
+        <v>739.0</v>
       </c>
       <c s="1" r="G212">
         <v>0.0</v>
@@ -7893,19 +7914,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B213">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D213">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F213">
-        <v>739.0</v>
+        <v>62.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
@@ -7922,28 +7943,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B214">
-        <v>233286.0</v>
+        <v>458496.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D214">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F214">
-        <v>62.0</v>
+        <v>550.0</v>
       </c>
       <c s="1" r="G214">
         <v>0.0</v>
       </c>
       <c s="1" r="H214">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I214">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="215">
@@ -7951,28 +7972,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B215">
-        <v>458496.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D215">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F215">
-        <v>550.0</v>
+        <v>1557.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
       </c>
       <c s="1" r="H215">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I215">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="216">
@@ -7980,19 +8001,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B216">
-        <v>440341.0</v>
+        <v>456010.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D216">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F216">
-        <v>1557.0</v>
+        <v>234.0</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -8009,19 +8030,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B217">
-        <v>456010.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D217">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F217">
-        <v>234.0</v>
+        <v>2420.0</v>
       </c>
       <c s="1" r="G217">
         <v>0.0</v>
@@ -8038,19 +8059,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B218">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D218">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F218">
-        <v>2420.0</v>
+        <v>10942.0</v>
       </c>
       <c s="1" r="G218">
         <v>0.0</v>
@@ -8067,25 +8088,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B219">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D219">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F219">
-        <v>10942.0</v>
+        <v>30134.0</v>
       </c>
       <c s="1" r="G219">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="H219">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I219">
         <v>0.0</v>
@@ -8099,19 +8120,19 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D220">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F220">
         <v>30134.0</v>
       </c>
       <c s="1" r="G220">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H220">
         <v>1.0</v>
@@ -8128,13 +8149,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D221">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F221">
         <v>30134.0</v>
@@ -8143,7 +8164,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H221">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I221">
         <v>0.0</v>
@@ -8157,13 +8178,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D222">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F222">
         <v>30134.0</v>
@@ -8186,25 +8207,25 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D223">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F223">
         <v>30134.0</v>
       </c>
       <c s="1" r="G223">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H223">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I223">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="224">
@@ -8215,25 +8236,25 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D224">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F224">
         <v>30134.0</v>
       </c>
       <c s="1" r="G224">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H224">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I224">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="225">
@@ -8244,13 +8265,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C225">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D225">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E225">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F225">
         <v>30134.0</v>
@@ -8259,7 +8280,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H225">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I225">
         <v>0.0</v>
@@ -8270,25 +8291,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B226">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C226">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c s="1" r="D226">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E226">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c s="1" r="F226">
-        <v>30134.0</v>
+        <v>241.0</v>
       </c>
       <c s="1" r="G226">
         <v>0.0</v>
       </c>
       <c s="1" r="H226">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I226">
         <v>0.0</v>
@@ -8299,19 +8320,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B227">
-        <v>232919.0</v>
+        <v>476568.0</v>
       </c>
       <c t="s" s="1" r="C227">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c s="1" r="D227">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E227">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c s="1" r="F227">
-        <v>241.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="G227">
         <v>0.0</v>
@@ -8328,19 +8349,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B228">
-        <v>476568.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C228">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c s="1" r="D228">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E228">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c s="1" r="F228">
-        <v>18.0</v>
+        <v>211.0</v>
       </c>
       <c s="1" r="G228">
         <v>0.0</v>
@@ -8360,13 +8381,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C229">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c s="1" r="D229">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E229">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c s="1" r="F229">
         <v>211.0</v>
@@ -8386,28 +8407,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B230">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C230">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c s="1" r="D230">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E230">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c s="1" r="F230">
-        <v>211.0</v>
+        <v>5093.0</v>
       </c>
       <c s="1" r="G230">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H230">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I230">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="231">
@@ -8418,25 +8439,25 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C231">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c s="1" r="D231">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E231">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c s="1" r="F231">
         <v>5093.0</v>
       </c>
       <c s="1" r="G231">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H231">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I231">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="232">
@@ -8447,13 +8468,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C232">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c s="1" r="D232">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E232">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c s="1" r="F232">
         <v>5093.0</v>
@@ -8473,19 +8494,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B233">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C233">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c s="1" r="D233">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E233">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c s="1" r="F233">
-        <v>5093.0</v>
+        <v>989.0</v>
       </c>
       <c s="1" r="G233">
         <v>0.0</v>
@@ -8502,19 +8523,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B234">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C234">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c s="1" r="D234">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E234">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c s="1" r="F234">
-        <v>989.0</v>
+        <v>748.0</v>
       </c>
       <c s="1" r="G234">
         <v>0.0</v>
@@ -8531,19 +8552,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B235">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C235">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c s="1" r="D235">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E235">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c s="1" r="F235">
-        <v>748.0</v>
+        <v>4361.0</v>
       </c>
       <c s="1" r="G235">
         <v>0.0</v>
@@ -8560,19 +8581,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B236">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C236">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c s="1" r="D236">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E236">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c s="1" r="F236">
-        <v>4361.0</v>
+        <v>19.0</v>
       </c>
       <c s="1" r="G236">
         <v>0.0</v>
@@ -8589,28 +8610,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B237">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C237">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c s="1" r="D237">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E237">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c s="1" r="F237">
-        <v>19.0</v>
+        <v>23907.0</v>
       </c>
       <c s="1" r="G237">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="H237">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="I237">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="238">
@@ -8621,25 +8642,25 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C238">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c s="1" r="D238">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E238">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c s="1" r="F238">
         <v>23907.0</v>
       </c>
       <c s="1" r="G238">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H238">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I238">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="239">
@@ -8650,13 +8671,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C239">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c s="1" r="D239">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E239">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c s="1" r="F239">
         <v>23907.0</v>
@@ -8679,13 +8700,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C240">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c s="1" r="D240">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E240">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c s="1" r="F240">
         <v>23907.0</v>
@@ -8708,13 +8729,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C241">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c s="1" r="D241">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E241">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c s="1" r="F241">
         <v>23907.0</v>
@@ -8737,13 +8758,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C242">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c s="1" r="D242">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E242">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c s="1" r="F242">
         <v>23907.0</v>
@@ -8763,19 +8784,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B243">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C243">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c s="1" r="D243">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E243">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c s="1" r="F243">
-        <v>23907.0</v>
+        <v>42.0</v>
       </c>
       <c s="1" r="G243">
         <v>0.0</v>
@@ -8792,28 +8813,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B244">
-        <v>377485.0</v>
+        <v>460923.0</v>
       </c>
       <c t="s" s="1" r="C244">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c s="1" r="D244">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E244">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c s="1" r="F244">
-        <v>42.0</v>
+        <v>413.0</v>
       </c>
       <c s="1" r="G244">
         <v>0.0</v>
       </c>
       <c s="1" r="H244">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="I244">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="245">
@@ -8821,28 +8842,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B245">
-        <v>460923.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C245">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c s="1" r="D245">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E245">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c s="1" r="F245">
-        <v>413.0</v>
+        <v>31445.0</v>
       </c>
       <c s="1" r="G245">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c s="1" r="H245">
-        <v>8.0</v>
+        <v>138.0</v>
       </c>
       <c s="1" r="I245">
-        <v>1.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="246">
@@ -8853,25 +8874,25 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C246">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c s="1" r="D246">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E246">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c s="1" r="F246">
         <v>31445.0</v>
       </c>
       <c s="1" r="G246">
-        <v>30.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="H246">
-        <v>138.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="I246">
-        <v>145.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="247">
@@ -8882,25 +8903,25 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C247">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c s="1" r="D247">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E247">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c s="1" r="F247">
         <v>31445.0</v>
       </c>
       <c s="1" r="G247">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H247">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I247">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="248">
@@ -8911,13 +8932,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C248">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c s="1" r="D248">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E248">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c s="1" r="F248">
         <v>31445.0</v>
@@ -8937,19 +8958,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B249">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C249">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c s="1" r="D249">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E249">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c s="1" r="F249">
-        <v>31445.0</v>
+        <v>2570.0</v>
       </c>
       <c s="1" r="G249">
         <v>0.0</v>
@@ -8966,19 +8987,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B250">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C250">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c s="1" r="D250">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E250">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c s="1" r="F250">
-        <v>2570.0</v>
+        <v>496.0</v>
       </c>
       <c s="1" r="G250">
         <v>0.0</v>
@@ -8995,19 +9016,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B251">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C251">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c s="1" r="D251">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E251">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c s="1" r="F251">
-        <v>496.0</v>
+        <v>1664.0</v>
       </c>
       <c s="1" r="G251">
         <v>0.0</v>
@@ -9024,28 +9045,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B252">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C252">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c s="1" r="D252">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E252">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c s="1" r="F252">
-        <v>1664.0</v>
+        <v>31087.0</v>
       </c>
       <c s="1" r="G252">
         <v>0.0</v>
       </c>
       <c s="1" r="H252">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I252">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="253">
@@ -9056,13 +9077,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C253">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c s="1" r="D253">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E253">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c s="1" r="F253">
         <v>31087.0</v>
@@ -9071,10 +9092,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H253">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I253">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
@@ -9085,13 +9106,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C254">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c s="1" r="D254">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E254">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c s="1" r="F254">
         <v>31087.0</v>
@@ -9114,13 +9135,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C255">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c s="1" r="D255">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E255">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c s="1" r="F255">
         <v>31087.0</v>
@@ -9143,13 +9164,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C256">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c s="1" r="D256">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E256">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c s="1" r="F256">
         <v>31087.0</v>
@@ -9172,13 +9193,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C257">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c s="1" r="D257">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E257">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c s="1" r="F257">
         <v>31087.0</v>
@@ -9201,13 +9222,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C258">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c s="1" r="D258">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E258">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c s="1" r="F258">
         <v>31087.0</v>
@@ -9230,13 +9251,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C259">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c s="1" r="D259">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E259">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c s="1" r="F259">
         <v>31087.0</v>
@@ -9259,13 +9280,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C260">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c s="1" r="D260">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E260">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c s="1" r="F260">
         <v>31087.0</v>
@@ -9288,13 +9309,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C261">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c s="1" r="D261">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E261">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c s="1" r="F261">
         <v>31087.0</v>
@@ -9317,13 +9338,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C262">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c s="1" r="D262">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E262">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c s="1" r="F262">
         <v>31087.0</v>
@@ -9346,13 +9367,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C263">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c s="1" r="D263">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E263">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c s="1" r="F263">
         <v>31087.0</v>
@@ -9375,13 +9396,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C264">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c s="1" r="D264">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E264">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c s="1" r="F264">
         <v>31087.0</v>
@@ -9401,19 +9422,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B265">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C265">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c s="1" r="D265">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E265">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c s="1" r="F265">
-        <v>31087.0</v>
+        <v>124.0</v>
       </c>
       <c s="1" r="G265">
         <v>0.0</v>
@@ -9430,19 +9451,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B266">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C266">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c s="1" r="D266">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E266">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c s="1" r="F266">
-        <v>124.0</v>
+        <v>33.0</v>
       </c>
       <c s="1" r="G266">
         <v>0.0</v>
@@ -9459,25 +9480,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B267">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C267">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c s="1" r="D267">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E267">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c s="1" r="F267">
-        <v>33.0</v>
+        <v>6208.0</v>
       </c>
       <c s="1" r="G267">
         <v>0.0</v>
       </c>
       <c s="1" r="H267">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I267">
         <v>0.0</v>
@@ -9488,25 +9509,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B268">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C268">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c s="1" r="D268">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E268">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c s="1" r="F268">
-        <v>6208.0</v>
+        <v>1751.0</v>
       </c>
       <c s="1" r="G268">
         <v>0.0</v>
       </c>
       <c s="1" r="H268">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I268">
         <v>0.0</v>
@@ -9517,25 +9538,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B269">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C269">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c s="1" r="D269">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E269">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c s="1" r="F269">
-        <v>1751.0</v>
+        <v>540.0</v>
       </c>
       <c s="1" r="G269">
         <v>0.0</v>
       </c>
       <c s="1" r="H269">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I269">
         <v>0.0</v>
@@ -9546,19 +9567,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B270">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C270">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c s="1" r="D270">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E270">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c s="1" r="F270">
-        <v>540.0</v>
+        <v>1431.0</v>
       </c>
       <c s="1" r="G270">
         <v>0.0</v>
@@ -9575,19 +9596,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B271">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C271">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c s="1" r="D271">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E271">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c s="1" r="F271">
-        <v>1431.0</v>
+        <v>8440.0</v>
       </c>
       <c s="1" r="G271">
         <v>0.0</v>
@@ -9604,19 +9625,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B272">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C272">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c s="1" r="D272">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E272">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c s="1" r="F272">
-        <v>8440.0</v>
+        <v>136.0</v>
       </c>
       <c s="1" r="G272">
         <v>0.0</v>
@@ -9633,19 +9654,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B273">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C273">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c s="1" r="D273">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E273">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c s="1" r="F273">
-        <v>136.0</v>
+        <v>35.0</v>
       </c>
       <c s="1" r="G273">
         <v>0.0</v>
@@ -9662,19 +9683,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B274">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C274">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c s="1" r="D274">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E274">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c s="1" r="F274">
-        <v>35.0</v>
+        <v>2302.0</v>
       </c>
       <c s="1" r="G274">
         <v>0.0</v>
@@ -9683,7 +9704,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I274">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="275">
@@ -9691,19 +9712,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B275">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C275">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c s="1" r="D275">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E275">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c s="1" r="F275">
-        <v>2302.0</v>
+        <v>73.0</v>
       </c>
       <c s="1" r="G275">
         <v>0.0</v>
@@ -9712,7 +9733,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I275">
-        <v>66.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="276">
@@ -9720,19 +9741,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B276">
-        <v>234225.0</v>
+        <v>448628.0</v>
       </c>
       <c t="s" s="1" r="C276">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c s="1" r="D276">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E276">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c s="1" r="F276">
-        <v>73.0</v>
+        <v>431.0</v>
       </c>
       <c s="1" r="G276">
         <v>0.0</v>
@@ -9749,28 +9770,28 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B277">
-        <v>448628.0</v>
+        <v>447069.0</v>
       </c>
       <c t="s" s="1" r="C277">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c s="1" r="D277">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E277">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c s="1" r="F277">
-        <v>431.0</v>
+        <v>476.0</v>
       </c>
       <c s="1" r="G277">
         <v>0.0</v>
       </c>
       <c s="1" r="H277">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I277">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="278">
@@ -9778,25 +9799,25 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B278">
-        <v>447069.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C278">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c s="1" r="D278">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E278">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c s="1" r="F278">
-        <v>476.0</v>
+        <v>151.0</v>
       </c>
       <c s="1" r="G278">
         <v>0.0</v>
       </c>
       <c s="1" r="H278">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I278">
         <v>1.0</v>
@@ -9807,56 +9828,27 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B279">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C279">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c s="1" r="D279">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E279">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c s="1" r="F279">
-        <v>151.0</v>
+        <v>3717.0</v>
       </c>
       <c s="1" r="G279">
         <v>0.0</v>
       </c>
       <c s="1" r="H279">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I279">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c s="1" r="A280">
-        <v>2012.0</v>
-      </c>
-      <c s="1" r="B280">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C280">
-        <v>564</v>
-      </c>
-      <c s="1" r="D280">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E280">
-        <v>565</v>
-      </c>
-      <c s="1" r="F280">
-        <v>3717.0</v>
-      </c>
-      <c s="1" r="G280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H280">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I280">
         <v>0.0</v>
       </c>
     </row>
